--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_summer.xlsx
@@ -426,7 +426,7 @@
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>-0.1634715480938964</v>
+        <v>0.07975464681371225</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-1.31761954538927</v>
+        <v>-3.017636378339217</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>0.6888449045935552</v>
+        <v>-3.229247082222797</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +454,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>2.771597318554297</v>
+        <v>0.003352386816724007</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>3.609425886625339</v>
+        <v>-1.461031976610316</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.799362536952542</v>
+        <v>3.925837669383347</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>1.169339034160743</v>
+        <v>2.641604203902781</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>2.123182427147152</v>
+        <v>0.2381541440396262</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>4.818619766830312</v>
+        <v>1.60268309892857</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>7.317297369612819</v>
+        <v>4.993892964711621</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>6.33415002955966</v>
+        <v>2.260118192030736</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>4.260319658857736</v>
+        <v>6.711795724673664</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.29595620404217</v>
+        <v>6.409878804372982</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>-0.05262415810141086</v>
+        <v>0.5121603413743347</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.191891383640931</v>
+        <v>3.290935868252554</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +556,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.459778471779982</v>
+        <v>1.745565778643887</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.283682996337033</v>
+        <v>0.7985845180024986</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>3.002208343813528</v>
+        <v>2.687500891103922</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>3.141368102642828</v>
+        <v>1.922191950024699</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +590,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>3.951369010811856</v>
+        <v>3.654655474034474</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>2.814393891325029</v>
+        <v>3.068403604789749</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>3.473437336652374</v>
+        <v>3.712036718632117</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>2.371660794972863</v>
+        <v>3.908921577463587</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.6257981900360754</v>
+        <v>2.849400388885992</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>0.02822784966425296</v>
+        <v>3.535456592693387</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-4.251052026148628</v>
+        <v>-4.741003096464214</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.656212438505845</v>
+        <v>-2.156795995006056</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +658,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.495530390347999</v>
+        <v>1.194925448553708</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>2.320052410719797</v>
+        <v>-2.068675356622807</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +675,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-1.396072416567873</v>
+        <v>-1.084365158506884</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-3.455348590137297</v>
+        <v>-1.089896342664354</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-3.39661216620909</v>
+        <v>-3.40787540386569</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.3369494081789437</v>
+        <v>-2.191935020614488</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +709,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-1.67392582565723</v>
+        <v>-1.853660925652212</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>1.204607811081226</v>
+        <v>-1.878672029998096</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>2.319409367208825</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>0.07975464681371225</v>
+        <v>5.080273296954374</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-3.017636378339217</v>
+        <v>-3.942037578692481</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-3.229247082222797</v>
+        <v>-1.648748515828502</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.003352386816724007</v>
+        <v>-2.839753013810475</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>-1.461031976610316</v>
+        <v>-1.632723506456935</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>3.925837669383347</v>
+        <v>4.960109259035406</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>2.641604203902781</v>
+        <v>4.506881698240095</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>0.2381541440396262</v>
+        <v>2.134646894829806</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.60268309892857</v>
+        <v>2.531943146540772</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>4.993892964711621</v>
+        <v>-2.700325749999488</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>2.260118192030736</v>
+        <v>-0.3858735870725938</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>6.711795724673664</v>
+        <v>5.469647210234996</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>6.409878804372982</v>
+        <v>3.061326532789543</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>0.5121603413743347</v>
+        <v>0.950153436409007</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>3.290935868252554</v>
+        <v>2.074800935750787</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.745565778643887</v>
+        <v>3.458696398997052</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>0.7985845180024986</v>
+        <v>2.610227683091337</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.687500891103922</v>
+        <v>2.772413308959698</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.922191950024699</v>
+        <v>2.755099409670958</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>3.654655474034474</v>
+        <v>3.145819842658448</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>3.068403604789749</v>
+        <v>3.875106770584158</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>3.712036718632117</v>
+        <v>4.520465362328063</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>3.908921577463587</v>
+        <v>4.124307769579505</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.849400388885992</v>
+        <v>4.479055418855871</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>3.535456592693387</v>
+        <v>4.888255652935936</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-4.741003096464214</v>
+        <v>2.922623512367206</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-2.156795995006056</v>
+        <v>2.761298099516418</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.194925448553708</v>
+        <v>-0.2939924376199055</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-2.068675356622807</v>
+        <v>1.109922826784815</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-1.084365158506884</v>
+        <v>-2.429883624035745</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-1.089896342664354</v>
+        <v>-0.8739913853863412</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-3.40787540386569</v>
+        <v>-1.060428249734879</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-2.191935020614488</v>
+        <v>-1.285332554730334</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-1.853660925652212</v>
+        <v>0.1432745330888219</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-1.878672029998096</v>
+        <v>-0.484131235569496</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.922623512367206</v>
+        <v>2.944732456202548</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.761298099516418</v>
+        <v>2.952888094518125</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-0.2939924376199055</v>
+        <v>0.7712591263790092</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.109922826784815</v>
+        <v>2.690914239437681</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-2.429883624035745</v>
+        <v>-1.733020510269734</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.8739913853863412</v>
+        <v>1.276886232005281</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-1.060428249734879</v>
+        <v>-0.5744163079740239</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-1.285332554730334</v>
+        <v>-0.6956477387308868</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.1432745330888219</v>
+        <v>-0.1892239049850031</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.484131235569496</v>
+        <v>-1.765469626114691</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,14 +422,11 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>2.319409367208825</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>5.080273296954374</v>
+        <v>5.080273296954396</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-3.942037578692481</v>
+        <v>-3.942037578692492</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-1.648748515828502</v>
+        <v>-1.648748515828491</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +454,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>-2.839753013810475</v>
+        <v>-2.839753013810498</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>-1.632723506456935</v>
+        <v>-1.632723506456923</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +471,7 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>4.960109259035406</v>
+        <v>4.960109259035428</v>
       </c>
       <c r="D5">
         <v>2012</v>
@@ -508,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-2.700325749999488</v>
+        <v>-2.700325749999499</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>-0.3858735870725938</v>
+        <v>-0.3858735870725494</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>5.469647210234996</v>
+        <v>5.469647210234974</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>3.061326532789543</v>
+        <v>3.061326532789521</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -559,13 +556,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>3.458696398997052</v>
+        <v>3.458696398997096</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.610227683091337</v>
+        <v>2.610227683091315</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,7 +573,7 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.772413308959698</v>
+        <v>2.77241330895972</v>
       </c>
       <c r="D11">
         <v>2018</v>
@@ -593,7 +590,7 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>3.145819842658448</v>
+        <v>3.14581984265847</v>
       </c>
       <c r="D12">
         <v>2019</v>
@@ -616,7 +613,7 @@
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>4.124307769579505</v>
+        <v>4.124307769579483</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -633,7 +630,7 @@
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>4.888255652935936</v>
+        <v>4.888255652935958</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -650,7 +647,7 @@
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.952888094518125</v>
+        <v>2.95288809451808</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -695,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.5744163079740239</v>
+        <v>-0.5744163079740128</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.6956477387308868</v>
+        <v>-0.6956477387308979</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,7 +709,7 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-0.1892239049850031</v>
+        <v>-0.1892239049850142</v>
       </c>
       <c r="D19">
         <v>2026</v>
